--- a/pred_ohlcv/54_21/2019-10-10 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 CHR ohlcv.xlsx
@@ -444,7 +444,7 @@
         <v>-119492.26176924</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:8">
@@ -522,7 +522,7 @@
         <v>-130005.13236924</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:8">
@@ -678,7 +678,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -756,7 +756,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>-96480.06726923998</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H24">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-34093.73810478998</v>
       </c>
       <c r="H27">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>467513.45238562</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>302645.94258481</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>380371.67793485</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>357757.13793485</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>384942.00294036</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>384942.00294036</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>329676.09604036</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>331750.89884036</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>366273.61425012</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>369347.94725012</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>521460.98289188</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>521460.98289188</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>690702.02418412</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>690702.02418412</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>742946.29637129</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>726640.11477129</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>906056.2385250397</v>
       </c>
       <c r="H57">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2627007.386400958</v>
       </c>
       <c r="H150">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H151">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H152">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H153">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2639419.153100958</v>
       </c>
       <c r="H154">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2665984.291759608</v>
       </c>
       <c r="H155">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2575610.778718258</v>
       </c>
       <c r="H156">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2582276.373218258</v>
       </c>
       <c r="H157">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2647747.122052808</v>
       </c>
       <c r="H158">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2648352.694477228</v>
       </c>
       <c r="H159">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2619972.836677229</v>
       </c>
       <c r="H160">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2619982.836677229</v>
       </c>
       <c r="H161">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2414399.075877229</v>
       </c>
       <c r="H162">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H163">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H164">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H165">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H166">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H167">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H168">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H169">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H170">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H171">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H172">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H173">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H175">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2363406.271977229</v>
       </c>
       <c r="H176">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H177">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H178">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H179">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2341285.865377228</v>
       </c>
       <c r="H180">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2352400.012777228</v>
       </c>
       <c r="H181">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H182">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H183">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2381802.525577229</v>
       </c>
       <c r="H184">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2381002.525577229</v>
       </c>
       <c r="H185">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2381012.525577229</v>
       </c>
       <c r="H186">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2378223.431477229</v>
       </c>
       <c r="H187">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2266071.711177228</v>
       </c>
       <c r="H188">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2266081.711177228</v>
       </c>
       <c r="H189">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H190">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H191">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H192">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H193">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H194">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H195">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H196">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5514,7 +5514,7 @@
         <v>2137206.443377228</v>
       </c>
       <c r="H197">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="198" spans="1:8">
@@ -5540,7 +5540,7 @@
         <v>2126026.799477228</v>
       </c>
       <c r="H198">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="199" spans="1:8">
@@ -5566,7 +5566,7 @@
         <v>2073794.003677228</v>
       </c>
       <c r="H199">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="200" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2572026.046105908</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2572016.046105908</v>
       </c>
       <c r="H222">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2384560.138659358</v>
       </c>
       <c r="H223">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2386815.009050767</v>
       </c>
       <c r="H224">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2230830.571915417</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2230810.571915417</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2225682.324815417</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2186990.656670347</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2096051.219170347</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2269282.413943987</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2364428.585014547</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">

--- a/pred_ohlcv/54_21/2019-10-10 CHR ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-10 CHR ohlcv.xlsx
@@ -808,7 +808,7 @@
         <v>-96484.60336923998</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-34203.68770478998</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-34240.70770478998</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>-34093.73810478998</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>-34154.90460478998</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>135584.44709566</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>467513.45238562</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>302645.94258481</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>380371.67793485</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>357757.13793485</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>384942.00294036</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>384942.00294036</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>329676.09604036</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>331750.89884036</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>366273.61425012</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>369347.94725012</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>521460.98289188</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>521460.98289188</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>690702.02418412</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>690702.02418412</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>742946.29637129</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>726640.11477129</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1874,7 +1874,7 @@
         <v>906056.2385250397</v>
       </c>
       <c r="H57">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="58" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>1408015.98408722</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>1640993.99353794</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>1524311.45430453</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>1469879.63730453</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>1353537.41460453</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>828162.3871627295</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>1017159.027662729</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>1529415.14907037</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>737680.0038703695</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>1306025.0845494</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -3564,7 +3564,7 @@
         <v>1844373.756297819</v>
       </c>
       <c r="H122">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="123" spans="1:8">
@@ -3590,7 +3590,7 @@
         <v>2044720.284595429</v>
       </c>
       <c r="H123">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="124" spans="1:8">
@@ -3876,7 +3876,7 @@
         <v>2499101.003802489</v>
       </c>
       <c r="H134">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="135" spans="1:8">
@@ -3902,7 +3902,7 @@
         <v>2515672.596071798</v>
       </c>
       <c r="H135">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="136" spans="1:8">
@@ -3928,7 +3928,7 @@
         <v>2614465.928300958</v>
       </c>
       <c r="H136">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="137" spans="1:8">
@@ -3954,7 +3954,7 @@
         <v>2614455.928300958</v>
       </c>
       <c r="H137">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="138" spans="1:8">
@@ -4006,7 +4006,7 @@
         <v>2583710.612500958</v>
       </c>
       <c r="H139">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="140" spans="1:8">
@@ -4032,7 +4032,7 @@
         <v>2590469.515100958</v>
       </c>
       <c r="H140">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="141" spans="1:8">
@@ -4058,7 +4058,7 @@
         <v>2606250.262300958</v>
       </c>
       <c r="H141">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="142" spans="1:8">
@@ -4084,7 +4084,7 @@
         <v>2603435.884800958</v>
       </c>
       <c r="H142">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="143" spans="1:8">
@@ -4110,7 +4110,7 @@
         <v>2603425.884800958</v>
       </c>
       <c r="H143">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="144" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>2603435.884800958</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4162,7 +4162,7 @@
         <v>2624651.857100958</v>
       </c>
       <c r="H145">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="146" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>2624651.857100958</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>2623120.207800958</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>2623803.727300958</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>2628256.879200958</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>2627007.386400958</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4318,7 +4318,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H151">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="152" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4370,7 +4370,7 @@
         <v>2665380.771800958</v>
       </c>
       <c r="H153">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="154" spans="1:8">
@@ -4396,7 +4396,7 @@
         <v>2639419.153100958</v>
       </c>
       <c r="H154">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="155" spans="1:8">
@@ -4422,7 +4422,7 @@
         <v>2665984.291759608</v>
       </c>
       <c r="H155">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="156" spans="1:8">
@@ -4448,7 +4448,7 @@
         <v>2575610.778718258</v>
       </c>
       <c r="H156">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="157" spans="1:8">
@@ -4474,7 +4474,7 @@
         <v>2582276.373218258</v>
       </c>
       <c r="H157">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="158" spans="1:8">
@@ -4500,7 +4500,7 @@
         <v>2647747.122052808</v>
       </c>
       <c r="H158">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="159" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>2648352.694477228</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4552,7 +4552,7 @@
         <v>2619972.836677229</v>
       </c>
       <c r="H160">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="161" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>2619982.836677229</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4604,7 +4604,7 @@
         <v>2414399.075877229</v>
       </c>
       <c r="H162">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="163" spans="1:8">
@@ -4630,7 +4630,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H163">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="164" spans="1:8">
@@ -4656,7 +4656,7 @@
         <v>2439130.042777229</v>
       </c>
       <c r="H164">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165" spans="1:8">
@@ -4682,7 +4682,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H165">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="166" spans="1:8">
@@ -4708,7 +4708,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H166">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="167" spans="1:8">
@@ -4734,7 +4734,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H167">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="168" spans="1:8">
@@ -4760,7 +4760,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H168">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="169" spans="1:8">
@@ -4786,7 +4786,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H169">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="170" spans="1:8">
@@ -4812,7 +4812,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H170">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="171" spans="1:8">
@@ -4838,7 +4838,7 @@
         <v>2369342.909377228</v>
       </c>
       <c r="H171">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="172" spans="1:8">
@@ -4864,7 +4864,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H172">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="173" spans="1:8">
@@ -4890,7 +4890,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H173">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="174" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -4942,7 +4942,7 @@
         <v>2363396.271977229</v>
       </c>
       <c r="H175">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="176" spans="1:8">
@@ -4968,7 +4968,7 @@
         <v>2363406.271977229</v>
       </c>
       <c r="H176">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="177" spans="1:8">
@@ -4994,7 +4994,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H177">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="178" spans="1:8">
@@ -5020,7 +5020,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H178">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="179" spans="1:8">
@@ -5046,7 +5046,7 @@
         <v>2342130.409377228</v>
       </c>
       <c r="H179">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="180" spans="1:8">
@@ -5072,7 +5072,7 @@
         <v>2341285.865377228</v>
       </c>
       <c r="H180">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="181" spans="1:8">
@@ -5098,7 +5098,7 @@
         <v>2352400.012777228</v>
       </c>
       <c r="H181">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="182" spans="1:8">
@@ -5124,7 +5124,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H182">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="183" spans="1:8">
@@ -5150,7 +5150,7 @@
         <v>2352410.012777228</v>
       </c>
       <c r="H183">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="184" spans="1:8">
@@ -5176,7 +5176,7 @@
         <v>2381802.525577229</v>
       </c>
       <c r="H184">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="185" spans="1:8">
@@ -5202,7 +5202,7 @@
         <v>2381002.525577229</v>
       </c>
       <c r="H185">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="186" spans="1:8">
@@ -5228,7 +5228,7 @@
         <v>2381012.525577229</v>
       </c>
       <c r="H186">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="187" spans="1:8">
@@ -5254,7 +5254,7 @@
         <v>2378223.431477229</v>
       </c>
       <c r="H187">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="188" spans="1:8">
@@ -5280,7 +5280,7 @@
         <v>2266071.711177228</v>
       </c>
       <c r="H188">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="189" spans="1:8">
@@ -5306,7 +5306,7 @@
         <v>2266081.711177228</v>
       </c>
       <c r="H189">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="190" spans="1:8">
@@ -5332,7 +5332,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H190">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="191" spans="1:8">
@@ -5358,7 +5358,7 @@
         <v>2259257.647077228</v>
       </c>
       <c r="H191">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="192" spans="1:8">
@@ -5384,7 +5384,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H192">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="193" spans="1:8">
@@ -5410,7 +5410,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H193">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="194" spans="1:8">
@@ -5436,7 +5436,7 @@
         <v>2237787.517277228</v>
       </c>
       <c r="H194">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="195" spans="1:8">
@@ -5462,7 +5462,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H195">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="196" spans="1:8">
@@ -5488,7 +5488,7 @@
         <v>2089314.936977228</v>
       </c>
       <c r="H196">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="197" spans="1:8">
@@ -5982,7 +5982,7 @@
         <v>2120244.168710728</v>
       </c>
       <c r="H215">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="216" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>2371727.041876538</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>2572026.046105908</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6164,7 +6164,7 @@
         <v>2572016.046105908</v>
       </c>
       <c r="H222">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="223" spans="1:8">
@@ -6190,7 +6190,7 @@
         <v>2384560.138659358</v>
       </c>
       <c r="H223">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="224" spans="1:8">
@@ -6216,7 +6216,7 @@
         <v>2386815.009050767</v>
       </c>
       <c r="H224">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="225" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>2230830.571915417</v>
       </c>
       <c r="H225">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>2230810.571915417</v>
       </c>
       <c r="H226">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H227">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>2229545.940415417</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>2229535.940415417</v>
       </c>
       <c r="H229">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>2225682.324815417</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>2425285.131270347</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>2186990.656670347</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>2096051.219170347</v>
       </c>
       <c r="H233">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>2313834.494897967</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>2313250.235697967</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>2114674.971872567</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>2274229.348043987</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>2269282.413943987</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>2243041.844343987</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>2306503.550027317</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>2364428.585014547</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>2361428.585014547</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>2249812.017214547</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>2137620.790514547</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
